--- a/excercises/excercises/51.MF_pipe.xlsx
+++ b/excercises/excercises/51.MF_pipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08EC421-8D6F-4382-9817-CCA2C86B0AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440963B-4DDD-4A87-A6F4-3072343F6664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3105" windowWidth="28800" windowHeight="15495" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="120" windowWidth="28335" windowHeight="17625" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <definedName name="Hydr_corr_">'MF 1 '!$H$20</definedName>
     <definedName name="id_">'MF 1 '!$C$21</definedName>
     <definedName name="L_">'MF 1 '!$C$20</definedName>
+    <definedName name="l_test_">'MF 1 '!$V$32:$V$57</definedName>
     <definedName name="l0_">'MF 1 '!$C$32</definedName>
     <definedName name="muob_" localSheetId="0">'MF 1 '!$C$15</definedName>
     <definedName name="n_">'MF 1 '!$A$57</definedName>
+    <definedName name="p_test_">'MF 1 '!$W$32:$W$57</definedName>
     <definedName name="p0_">'MF 1 '!$C$23</definedName>
     <definedName name="p1_">'MF 1 '!$C$24</definedName>
     <definedName name="Pb_" localSheetId="0">'MF 1 '!$C$12</definedName>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -420,6 +422,12 @@
   </si>
   <si>
     <t>Корреляция</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Тестовые данные для подгонки</t>
   </si>
 </sst>
 </file>
@@ -949,79 +957,79 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.282835696835662</c:v>
+                  <c:v>34.45830697683477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.804619529447443</c:v>
+                  <c:v>39.201054561688416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.56971929769422</c:v>
+                  <c:v>44.206549861766042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.581015921896686</c:v>
+                  <c:v>49.452514971698584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.839862796042681</c:v>
+                  <c:v>54.926764369512021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.346016202754313</c:v>
+                  <c:v>60.603492224912486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.097653537058143</c:v>
+                  <c:v>66.456648393632904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.09146344667203</c:v>
+                  <c:v>72.46759278041938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.322760518438173</c:v>
+                  <c:v>78.61928674074862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.785636022097648</c:v>
+                  <c:v>84.896267708752504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.473136095056276</c:v>
+                  <c:v>91.284594842496034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.377457338851627</c:v>
+                  <c:v>97.771928575101001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.49014977056116</c:v>
+                  <c:v>104.34146471104317</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.802318004152255</c:v>
+                  <c:v>110.92446493153147</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.30533349022976</c:v>
+                  <c:v>117.50618752236585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.87209090177194</c:v>
+                  <c:v>124.08562038174215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.43713928094289</c:v>
+                  <c:v>130.66240608327078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.00002334753637</c:v>
+                  <c:v>137.23623866706461</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.56035672643634</c:v>
+                  <c:v>143.80685408794315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.11780856085693</c:v>
+                  <c:v>150.3740227845376</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.67209322758129</c:v>
+                  <c:v>156.93754382843179</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.22296233041891</c:v>
+                  <c:v>163.4972402668358</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.77019839287533</c:v>
+                  <c:v>170.05295537854172</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.31360983459982</c:v>
+                  <c:v>176.6045496362195</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>169.8530269307513</c:v>
+                  <c:v>183.15189822125632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,79 +1173,79 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30.065836338274494</c:v>
+                  <c:v>22.525180720432346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.353266230343635</c:v>
+                  <c:v>26.359569149115295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.881576341190112</c:v>
+                  <c:v>30.512287330320824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.652166870950353</c:v>
+                  <c:v>34.965338890259183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.66716968900387</c:v>
+                  <c:v>39.6885230840426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.933976805829268</c:v>
+                  <c:v>44.67860617873977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.444955588075366</c:v>
+                  <c:v>49.895306418710462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.203891126435863</c:v>
+                  <c:v>55.341631214571386</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.203324068180564</c:v>
+                  <c:v>60.986234133566285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.437668699657223</c:v>
+                  <c:v>66.802983475710704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.909071902776958</c:v>
+                  <c:v>72.779168822997846</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.600795023235307</c:v>
+                  <c:v>78.892292929001513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.512377781018515</c:v>
+                  <c:v>85.131438350668901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.630062129393494</c:v>
+                  <c:v>91.480537545930076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.943963104252006</c:v>
+                  <c:v>97.926561872010694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.45100161463726</c:v>
+                  <c:v>104.46376778893442</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.01793527898485</c:v>
+                  <c:v>111.02879299994518</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.58314561532865</c:v>
+                  <c:v>117.5922368622801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.14617942730267</c:v>
+                  <c:v>124.1536453286771</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.70665202910777</c:v>
+                  <c:v>130.71263303178026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.2642339491087</c:v>
+                  <c:v>137.26886997023377</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.81864071150491</c:v>
+                  <c:v>143.82207127375332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.36962487969328</c:v>
+                  <c:v>150.37198923138354</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.91696978623702</c:v>
+                  <c:v>156.91840700809308</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.4604845384396</c:v>
+                  <c:v>163.46113363876225</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>170</c:v>
@@ -2323,7 +2331,7 @@
       <definedName name="getUFVersion"/>
       <definedName name="MF_calibr_pipe_m3day"/>
       <definedName name="MF_p_pipe_atma"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2636,7 +2644,7 @@
   <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2826,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2848,13 +2856,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
@@ -2868,10 +2876,10 @@
         <v>42</v>
       </c>
       <c r="H20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>35</v>
       </c>
@@ -2915,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +2934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>37</v>
       </c>
@@ -2937,13 +2945,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="16" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;fluid:0;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2963,9 +2971,13 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
@@ -2986,8 +2998,14 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
+        <v>29</v>
+      </c>
+      <c r="W31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>1</v>
       </c>
@@ -3007,7 +3025,7 @@
       </c>
       <c r="G32" s="5">
         <f t="array" ref="G32:H32">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C32,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D32)</f>
-        <v>30.065836338274494</v>
+        <v>22.525180720432346</v>
       </c>
       <c r="H32" s="5">
         <v>30</v>
@@ -3016,10 +3034,16 @@
       <c r="K32" s="4"/>
       <c r="S32">
         <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C57,E57,E32,PVRstr1_,,id_,Hydr_corr_,D57,D32)</f>
-        <v>2.1950458351043451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.01953125</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>2</v>
       </c>
@@ -3032,22 +3056,28 @@
       </c>
       <c r="E33" s="5">
         <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D33)</f>
-        <v>33.282835696835662</v>
+        <v>34.45830697683477</v>
       </c>
       <c r="F33" s="5">
         <v>32</v>
       </c>
       <c r="G33" s="5">
         <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C33,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D33)</f>
-        <v>33.353266230343635</v>
+        <v>26.359569149115295</v>
       </c>
       <c r="H33" s="5">
         <v>32</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V33">
+        <v>80</v>
+      </c>
+      <c r="W33">
+        <v>34.45830697683477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>3</v>
       </c>
@@ -3060,22 +3090,28 @@
       </c>
       <c r="E34" s="5">
         <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D34)</f>
-        <v>36.804619529447443</v>
+        <v>39.201054561688416</v>
       </c>
       <c r="F34" s="5">
         <v>34</v>
       </c>
       <c r="G34" s="5">
         <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C34,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D34)</f>
-        <v>36.881576341190112</v>
+        <v>30.512287330320824</v>
       </c>
       <c r="H34" s="5">
         <v>34</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V34">
+        <v>160</v>
+      </c>
+      <c r="W34">
+        <v>39.201054561688416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>4</v>
       </c>
@@ -3088,22 +3124,28 @@
       </c>
       <c r="E35" s="5">
         <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D35)</f>
-        <v>40.56971929769422</v>
+        <v>44.206549861766042</v>
       </c>
       <c r="F35" s="5">
         <v>36</v>
       </c>
       <c r="G35" s="5">
         <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C35,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D35)</f>
-        <v>40.652166870950353</v>
+        <v>34.965338890259183</v>
       </c>
       <c r="H35" s="5">
         <v>36</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>240</v>
+      </c>
+      <c r="W35">
+        <v>44.206549861766042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>5</v>
       </c>
@@ -3116,22 +3158,28 @@
       </c>
       <c r="E36" s="5">
         <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D36)</f>
-        <v>44.581015921896686</v>
+        <v>49.452514971698584</v>
       </c>
       <c r="F36" s="5">
         <v>38</v>
       </c>
       <c r="G36" s="5">
         <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C36,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D36)</f>
-        <v>44.66716968900387</v>
+        <v>39.6885230840426</v>
       </c>
       <c r="H36" s="5">
         <v>38</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V36">
+        <v>320</v>
+      </c>
+      <c r="W36">
+        <v>49.452514971698584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>6</v>
       </c>
@@ -3144,22 +3192,28 @@
       </c>
       <c r="E37" s="5">
         <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D37)</f>
-        <v>48.839862796042681</v>
+        <v>54.926764369512021</v>
       </c>
       <c r="F37" s="5">
         <v>40</v>
       </c>
       <c r="G37" s="5">
         <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C37,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D37)</f>
-        <v>48.933976805829268</v>
+        <v>44.67860617873977</v>
       </c>
       <c r="H37" s="5">
         <v>40</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>400</v>
+      </c>
+      <c r="W37">
+        <v>54.926764369512021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>7</v>
       </c>
@@ -3172,22 +3226,28 @@
       </c>
       <c r="E38" s="5">
         <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D38)</f>
-        <v>53.346016202754313</v>
+        <v>60.603492224912486</v>
       </c>
       <c r="F38" s="5">
         <v>42</v>
       </c>
       <c r="G38" s="5">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C38,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D38)</f>
-        <v>53.444955588075366</v>
+        <v>49.895306418710462</v>
       </c>
       <c r="H38" s="5">
         <v>42</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>480</v>
+      </c>
+      <c r="W38">
+        <v>60.603492224912486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>8</v>
       </c>
@@ -3200,22 +3260,28 @@
       </c>
       <c r="E39" s="5">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D39)</f>
-        <v>58.097653537058143</v>
+        <v>66.456648393632904</v>
       </c>
       <c r="F39" s="5">
         <v>44</v>
       </c>
       <c r="G39" s="5">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C39,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D39)</f>
-        <v>58.203891126435863</v>
+        <v>55.341631214571386</v>
       </c>
       <c r="H39" s="5">
         <v>44</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>560</v>
+      </c>
+      <c r="W39">
+        <v>66.456648393632904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>9</v>
       </c>
@@ -3228,22 +3294,28 @@
       </c>
       <c r="E40" s="5">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D40)</f>
-        <v>63.09146344667203</v>
+        <v>72.46759278041938</v>
       </c>
       <c r="F40" s="5">
         <v>46</v>
       </c>
       <c r="G40" s="5">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C40,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D40)</f>
-        <v>63.203324068180564</v>
+        <v>60.986234133566285</v>
       </c>
       <c r="H40" s="5">
         <v>46</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V40">
+        <v>640</v>
+      </c>
+      <c r="W40">
+        <v>72.46759278041938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>10</v>
       </c>
@@ -3256,22 +3328,28 @@
       </c>
       <c r="E41" s="5">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D41)</f>
-        <v>68.322760518438173</v>
+        <v>78.61928674074862</v>
       </c>
       <c r="F41" s="5">
         <v>48</v>
       </c>
       <c r="G41" s="5">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C41,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D41)</f>
-        <v>68.437668699657223</v>
+        <v>66.802983475710704</v>
       </c>
       <c r="H41" s="5">
         <v>48</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>720</v>
+      </c>
+      <c r="W41">
+        <v>78.61928674074862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>11</v>
       </c>
@@ -3284,22 +3362,28 @@
       </c>
       <c r="E42" s="5">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D42)</f>
-        <v>73.785636022097648</v>
+        <v>84.896267708752504</v>
       </c>
       <c r="F42" s="5">
         <v>50</v>
       </c>
       <c r="G42" s="5">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C42,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D42)</f>
-        <v>73.909071902776958</v>
+        <v>72.779168822997846</v>
       </c>
       <c r="H42" s="5">
         <v>50</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>800</v>
+      </c>
+      <c r="W42">
+        <v>84.896267708752504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>12</v>
       </c>
@@ -3312,22 +3396,28 @@
       </c>
       <c r="E43" s="5">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D43)</f>
-        <v>79.473136095056276</v>
+        <v>91.284594842496034</v>
       </c>
       <c r="F43" s="5">
         <v>52</v>
       </c>
       <c r="G43" s="5">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C43,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D43)</f>
-        <v>79.600795023235307</v>
+        <v>78.892292929001513</v>
       </c>
       <c r="H43" s="5">
         <v>52</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>880</v>
+      </c>
+      <c r="W43">
+        <v>91.284594842496034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>13</v>
       </c>
@@ -3340,22 +3430,28 @@
       </c>
       <c r="E44" s="5">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D44)</f>
-        <v>85.377457338851627</v>
+        <v>97.771928575101001</v>
       </c>
       <c r="F44" s="5">
         <v>54</v>
       </c>
       <c r="G44" s="5">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C44,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D44)</f>
-        <v>85.512377781018515</v>
+        <v>85.131438350668901</v>
       </c>
       <c r="H44" s="5">
         <v>54</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V44">
+        <v>960</v>
+      </c>
+      <c r="W44">
+        <v>97.771928575101001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>14</v>
       </c>
@@ -3368,22 +3464,28 @@
       </c>
       <c r="E45" s="5">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D45)</f>
-        <v>91.49014977056116</v>
+        <v>104.34146471104317</v>
       </c>
       <c r="F45" s="5">
         <v>56</v>
       </c>
       <c r="G45" s="5">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C45,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D45)</f>
-        <v>91.630062129393494</v>
+        <v>91.480537545930076</v>
       </c>
       <c r="H45" s="5">
         <v>56</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V45">
+        <v>1040</v>
+      </c>
+      <c r="W45">
+        <v>104.34146471104317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>15</v>
       </c>
@@ -3396,22 +3498,28 @@
       </c>
       <c r="E46" s="5">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D46)</f>
-        <v>97.802318004152255</v>
+        <v>110.92446493153147</v>
       </c>
       <c r="F46" s="5">
         <v>58</v>
       </c>
       <c r="G46" s="5">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C46,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D46)</f>
-        <v>97.943963104252006</v>
+        <v>97.926561872010694</v>
       </c>
       <c r="H46" s="5">
         <v>58</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V46">
+        <v>1120</v>
+      </c>
+      <c r="W46">
+        <v>110.92446493153147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>16</v>
       </c>
@@ -3424,22 +3532,28 @@
       </c>
       <c r="E47" s="5">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D47)</f>
-        <v>104.30533349022976</v>
+        <v>117.50618752236585</v>
       </c>
       <c r="F47" s="5">
         <v>60</v>
       </c>
       <c r="G47" s="5">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C47,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D47)</f>
-        <v>104.45100161463726</v>
+        <v>104.46376778893442</v>
       </c>
       <c r="H47" s="5">
         <v>60</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V47">
+        <v>1200</v>
+      </c>
+      <c r="W47">
+        <v>117.50618752236585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>17</v>
       </c>
@@ -3452,22 +3566,28 @@
       </c>
       <c r="E48" s="5">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D48)</f>
-        <v>110.87209090177194</v>
+        <v>124.08562038174215</v>
       </c>
       <c r="F48" s="5">
         <v>62</v>
       </c>
       <c r="G48" s="5">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C48,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D48)</f>
-        <v>111.01793527898485</v>
+        <v>111.02879299994518</v>
       </c>
       <c r="H48" s="5">
         <v>62</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V48">
+        <v>1280</v>
+      </c>
+      <c r="W48">
+        <v>124.08562038174215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>18</v>
       </c>
@@ -3480,22 +3600,28 @@
       </c>
       <c r="E49" s="5">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D49)</f>
-        <v>117.43713928094289</v>
+        <v>130.66240608327078</v>
       </c>
       <c r="F49" s="5">
         <v>64</v>
       </c>
       <c r="G49" s="5">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C49,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D49)</f>
-        <v>117.58314561532865</v>
+        <v>117.5922368622801</v>
       </c>
       <c r="H49" s="5">
         <v>64</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V49">
+        <v>1360</v>
+      </c>
+      <c r="W49">
+        <v>130.66240608327078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>19</v>
       </c>
@@ -3508,22 +3634,28 @@
       </c>
       <c r="E50" s="5">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D50)</f>
-        <v>124.00002334753637</v>
+        <v>137.23623866706461</v>
       </c>
       <c r="F50" s="5">
         <v>66</v>
       </c>
       <c r="G50" s="5">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C50,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D50)</f>
-        <v>124.14617942730267</v>
+        <v>124.1536453286771</v>
       </c>
       <c r="H50" s="5">
         <v>66</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V50">
+        <v>1440</v>
+      </c>
+      <c r="W50">
+        <v>137.23623866706461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>20</v>
       </c>
@@ -3536,22 +3668,28 @@
       </c>
       <c r="E51" s="5">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D51)</f>
-        <v>130.56035672643634</v>
+        <v>143.80685408794315</v>
       </c>
       <c r="F51" s="5">
         <v>68</v>
       </c>
       <c r="G51" s="5">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C51,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D51)</f>
-        <v>130.70665202910777</v>
+        <v>130.71263303178026</v>
       </c>
       <c r="H51" s="5">
         <v>68</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V51">
+        <v>1520</v>
+      </c>
+      <c r="W51">
+        <v>143.80685408794315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>21</v>
       </c>
@@ -3564,22 +3702,28 @@
       </c>
       <c r="E52" s="5">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D52)</f>
-        <v>137.11780856085693</v>
+        <v>150.3740227845376</v>
       </c>
       <c r="F52" s="5">
         <v>70</v>
       </c>
       <c r="G52" s="5">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C52,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D52)</f>
-        <v>137.2642339491087</v>
+        <v>137.26886997023377</v>
       </c>
       <c r="H52" s="5">
         <v>70</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V52">
+        <v>1600</v>
+      </c>
+      <c r="W52">
+        <v>150.3740227845376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>22</v>
       </c>
@@ -3592,22 +3736,28 @@
       </c>
       <c r="E53" s="5">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D53)</f>
-        <v>143.67209322758129</v>
+        <v>156.93754382843179</v>
       </c>
       <c r="F53" s="5">
         <v>72</v>
       </c>
       <c r="G53" s="5">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C53,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D53)</f>
-        <v>143.81864071150491</v>
+        <v>143.82207127375332</v>
       </c>
       <c r="H53" s="5">
         <v>72</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V53">
+        <v>1680</v>
+      </c>
+      <c r="W53">
+        <v>156.93754382843179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>23</v>
       </c>
@@ -3620,22 +3770,28 @@
       </c>
       <c r="E54" s="5">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D54)</f>
-        <v>150.22296233041891</v>
+        <v>163.4972402668358</v>
       </c>
       <c r="F54" s="5">
         <v>74</v>
       </c>
       <c r="G54" s="5">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C54,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D54)</f>
-        <v>150.36962487969328</v>
+        <v>150.37198923138354</v>
       </c>
       <c r="H54" s="5">
         <v>74</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V54">
+        <v>1760</v>
+      </c>
+      <c r="W54">
+        <v>163.4972402668358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>24</v>
       </c>
@@ -3648,22 +3804,28 @@
       </c>
       <c r="E55" s="5">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D55)</f>
-        <v>156.77019839287533</v>
+        <v>170.05295537854172</v>
       </c>
       <c r="F55" s="5">
         <v>76</v>
       </c>
       <c r="G55" s="5">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C55,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D55)</f>
-        <v>156.91696978623702</v>
+        <v>156.91840700809308</v>
       </c>
       <c r="H55" s="5">
         <v>76</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V55">
+        <v>1840</v>
+      </c>
+      <c r="W55">
+        <v>170.05295537854172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>25</v>
       </c>
@@ -3676,22 +3838,28 @@
       </c>
       <c r="E56" s="5">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D56)</f>
-        <v>163.31360983459982</v>
+        <v>176.6045496362195</v>
       </c>
       <c r="F56" s="5">
         <v>78</v>
       </c>
       <c r="G56" s="5">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C56,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D56)</f>
-        <v>163.4604845384396</v>
+        <v>163.46113363876225</v>
       </c>
       <c r="H56" s="5">
         <v>78</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V56">
+        <v>1920</v>
+      </c>
+      <c r="W56">
+        <v>176.6045496362195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>26</v>
       </c>
@@ -3704,7 +3872,7 @@
       </c>
       <c r="E57" s="5">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D57)</f>
-        <v>169.8530269307513</v>
+        <v>183.15189822125632</v>
       </c>
       <c r="F57" s="5">
         <v>80</v>
@@ -3719,8 +3887,14 @@
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
+      <c r="V57">
+        <v>2000</v>
+      </c>
+      <c r="W57">
+        <v>183.15189822125632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises/51.MF_pipe.xlsx
+++ b/excercises/excercises/51.MF_pipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440963B-4DDD-4A87-A6F4-3072343F6664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4532FC-CFF7-4C11-BAA2-A53D644FDB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="120" windowWidth="28335" windowHeight="17625" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -2644,7 +2644,7 @@
   <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;fluid:0;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3034,7 +3034,7 @@
       <c r="K32" s="4"/>
       <c r="S32">
         <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C57,E57,E32,PVRstr1_,,id_,Hydr_corr_,D57,D32)</f>
-        <v>1.01953125</v>
+        <v>1.01971435546875</v>
       </c>
       <c r="V32">
         <v>0</v>
